--- a/excel/logindata.xlsx
+++ b/excel/logindata.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java_Selenium_Project\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/jobma_Self/New_Project_25-02_2024/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5C2F28-C6B5-431F-BDD6-115F42A12D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB894AF-8CD6-CD49-8FA4-84C4A4325EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -36,10 +47,10 @@
     <t>jenkinss@yopmail.com</t>
   </si>
   <si>
-    <t>Dev@123</t>
+    <t>Dev@1234</t>
   </si>
   <si>
-    <t>Dev@1234</t>
+    <t>Dev@12345</t>
   </si>
 </sst>
 </file>
@@ -374,13 +385,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -388,20 +399,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
